--- a/Excel/custom_ffmpeg_export_options.xlsx
+++ b/Excel/custom_ffmpeg_export_options.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Custom FFmpeg Export Options - Audacity Manual</t>
   </si>
@@ -49,10 +43,7 @@
     <t>Load Preset: Loads the selected preset into Audacity for use in the subsequent audio export.</t>
   </si>
   <si>
-    <t>Save Preset: Saves a single preset to Audacity's internal storage. Type a name for the preset in the box next to Preset:.</t>
-  </si>
-  <si>
-    <t>If you save a preset with a name that already exists, Audacity will ask if you want to overwrite it. Saved presets are stored in a file called "ffmpeg_presets.xml" in the Audacity data directory:</t>
+    <t>Save Preset: Saves a single preset to Audacity's internal storage. Type a name for the preset in the box next to Preset:.  If you save a preset with a name that already exists, Audacity will ask if you want to overwrite it. Saved presets are stored in a file called "ffmpeg_presets.xml" in the Audacity data directory:</t>
   </si>
   <si>
     <t>Windows: Users\&lt;username&gt;\AppData\Roaming\Audacity</t>
@@ -100,10 +91,7 @@
     <t>List of Codecs</t>
   </si>
   <si>
-    <t>In the adjacent Codecs list box, click to select the codec you want to use with the selected format. You can click to select a codec first but clicking on any particular codec may reduce the</t>
-  </si>
-  <si>
-    <t>list of formats because not all formats work with all codecs.</t>
+    <t>In the adjacent Codecs list box, click to select the codec you want to use with the selected format. You can click to select a codec first but clicking on any particular codec may reduce the  list of formats because not all formats work with all codecs.</t>
   </si>
   <si>
     <t>If you cannot find the desired Codec, press the Show All Codecs button, but note that the dialog will not allow selection of incompatible format/codec pairs.</t>
@@ -112,19 +100,13 @@
     <t>General Options</t>
   </si>
   <si>
-    <t>This pane has options that are configurable for all format and codec combinations.</t>
-  </si>
-  <si>
-    <t>For any particular combination of format and codec some options may not be available and they will be grayed out. Hover over the options (the input box not the text label) to see an explanation of what they do, and recommended settings. If an option is grayed out, it does not apply to the selected format/codec.</t>
+    <t>This pane has options that are configurable for all format and codec combinations.  For any particular combination of format and codec some options may not be available and they will be grayed out. Hover over the options (the input box not the text label) to see an explanation of what they do, and recommended settings. If an option is grayed out, it does not apply to the selected format/codec.</t>
   </si>
   <si>
     <t>FLAC Options</t>
   </si>
   <si>
-    <t>This pane has options that are only available when you select FLAC as your codec.</t>
-  </si>
-  <si>
-    <t>For all other codecs this pane's options will be grayed out.</t>
+    <t>This pane has options that are only available when you select FLAC as your codec.  For all other codecs this pane's options will be grayed out.</t>
   </si>
   <si>
     <t>MPEG container Options</t>
@@ -160,61 +142,58 @@
     <t>Audacity aims to provide the same exporting/importing features as FFmpeg. That is, you should be able to use Audacity to transcode audio with the same results as using FFmpeg directly. This also means that if FFmpeg cannot perform a particular conversion, Audacity cannot do it either. The limitations apply to both specific formats and codecs and to their metadata. In particular, FFmpeg can only export about two-thirds of the formats that it can import. Possibly incomplete information about known limitations can be seen at https://wiki.audacityteam.org/wiki/FFmpeg_integration#Functionality. One way to test if there is a problem in the Audacity implementation of FFmpeg is to use a command-line version of FFmpeg separately to perform the same task. If it fails in FFmpeg, then Audacity has the same limitation.</t>
   </si>
   <si>
-    <t>सानुकूल एफएफम्पेग निर्यात पर्याय - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>सानुकूल FFmpeg निर्यात पर्याय</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>आपण पर्यायी FFmpeg लायब्ररी स्थापित केली असल्यास सानुकूल FFmpeg निर्यातक उपलब्ध आहे. संवाद आपल्याला एका विशिष्ट स्वरूपात कंटेनरमध्ये विशिष्ट कोडेक निर्यात करू देतो. आपण सानुकूल एफएफएमपीईजी निर्यात निवडल्यास ऑडिओ किंवा एक्सपोर्ट मल्टीपल डायलॉगच्या ऑप्शन फलकातील ओपन कस्टम एफएफएमपीजी फॉरमॅट ऑप्शन बटणावर प्रतिसाद म्हणून सानुकूल एफएफएमपीजी फॉरमॅट ऑप्शन्स संवाद दिसून येतो. प्रकार ड्रॉपडाउन म्हणून जतन करा.</t>
-  </si>
-  <si>
-    <t>प्रीसेट्स</t>
-  </si>
-  <si>
-    <t>आपण सानुकूल FFmpeg निर्यात निवडीसाठी प्रीसेट जतन करू आणि लोड करू शकता. आपण आधीच बाह्य एक्सएमएल फाईलमध्ये जतन केलेले प्रीसेट निर्यात करू शकता आणि या फायलीवरून प्रीसेट सेट करू शकता, जेणेकरून आपण इतर वापरकर्त्यांसह प्रीसेट सेट करू शकाल.</t>
-  </si>
-  <si>
-    <t>संबंधित सूचीमधून स्वरूप आणि कोडेक दोन्ही निवडा. प्रीसेट: ड्रॉपडाउन मेनू उघडण्यासाठी मजकूर बॉक्सच्या उजवीकडे असलेल्या ब्लॅक त्रिकोणावर क्लिक करा आणि आवश्यक असलेला जतन केलेला प्रीसेट निवडा. त्यानंतर निवडलेले प्रीसेट सक्रिय होण्यासाठी आपल्याला लोड प्रीसेट बटण देखील वापरावे लागेल.</t>
-  </si>
-  <si>
-    <t>लोड प्रीसेट: त्यानंतरच्या ऑडिओ एक्सपोर्टमध्ये वापरण्यासाठी निवडलेला प्रीसेट ऑडॅसिटीमध्ये लोड करतो.</t>
-  </si>
-  <si>
-    <t>प्रीसेट प्रीसेट करा: ऑडॅसिटीच्या अंतर्गत संचयनास एक प्रीसेट जतन करते. प्रीसेट: पुढील बॉक्समध्ये प्रीसेटसाठी नाव टाइप करा.</t>
-  </si>
-  <si>
-    <t>आपण आधीपासून अस्तित्त्वात असलेल्या नावाने प्रीसेट जतन केल्यास, ते अधिलिखित करायचे असल्यास ऑडसिटी विचारेल. जतन केलेले प्रीसेट "ऑडसिटी डेटा निर्देशिकेत" ffmpeg_presets.xML "नावाच्या फाईलमध्ये संग्रहित केले जातात.</t>
-  </si>
-  <si>
-    <t>विंडोजः वापरकर्ते u &lt;वापरकर्तानाव&gt; \ अ‍ॅपडेटा \ रोमिंग \ ऑडेसिटी</t>
+    <t>सानुकूल एफएफयमपीईजी (ffmpeg) निर्यात पर्याय - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>सानुकूल एफएफयमपीईजी (ffmpeg) निर्यात पर्याय</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>आपण पर्यायी FFmpeg लायब्ररी स्थापित केली असल्यास सानुकूल एफएफयमपीईजी (ffmpeg) निर्यातक उपलब्ध आहे . संवाद आपल्याला एका विशिष्ट स्वरूपात कंटेनरमध्ये विशिष्ट कोडेक निर्यात करू देतो.सानुकूल एफएफयमपीईजी (ffmpeg) स्वरूप पर्याय प्रतिसाद संवाद दिसते सानुकूल उघडा एफएफयमपीईजी (ffmpeg) स्वरूपात पर्याय कळ निर्यात ध्वनी किंवा निर्यात अनेक संवाद पर्याय उपखंड आपण निवडलेल्या तेव्हा सानुकूल एफएफयमपीईजी (ffmpeg) निर्यात मध्ये प्रकार म्हणून जतन करा ड्रॉप डाउन.</t>
+  </si>
+  <si>
+    <t>पूर्वनिर्धारीत</t>
+  </si>
+  <si>
+    <t>आपण सानुकूल एफएफयमपीईजी (ffmpeg) निर्यात निवडीसाठी पूर्वनिर्धारीत जतन करू आणि लोड करू शकता. आपण आधीच बाह्य एक्सएमएल(XML) धारिकामध्ये जतन केलेले पूर्वनिर्धारीत निर्यात करू शकता आणि या धारिकावरून पूर्वनिर्धारीत निवड करू शकता, जेणेकरून आपण इतर वापरकर्त्यांसह पूर्वनिर्धारीत निवड करू शकाल.</t>
+  </si>
+  <si>
+    <t>संबंधित सूचीमधून स्वरूप आणि कोडेक दोन्ही निवडा. पूर्वनिर्धारीत: ड्रॉपडाउन मेनू उघडण्यासाठी मजकूर बॉक्सच्या उजवीकडे असलेल्या त्रिकोणावर क्लिक करा आणि आवश्यक असलेला जतन केलेला पूर्वनिर्धारीत निवडा. त्यानंतर निवडलेले पूर्वनिर्धारीत सक्रिय होण्यासाठी आपल्याला लोड पूर्वनिर्धारीत कळ देखील वापरावे लागेल .</t>
+  </si>
+  <si>
+    <t>लोड पूर्वनिर्धारीत : त्यानंतरच्या ध्वनी एक्सपोर्टमध्ये वापरण्यासाठी निवडलेला पूर्वनिर्धारीत ओड्यासिटीमध्ये लोड करतो.</t>
+  </si>
+  <si>
+    <t>पूर्वनिर्धारीत पूर्वनिर्धारीत करा : ओड्यासिटीच्या अंतर्गत संचयनास एक पूर्वनिर्धारीत जतन करते. पुढील बॉक्स मध्ये पूर्वनिश्चित एक नाव टाइप करा पूर्वनिर्धारीत: . आपण आधीपासून अस्तित्त्वात असलेल्या नावाने पूर्वनिर्धारीत जतन केल्यास, ते अधिलिखित करायचे असल्यास ओड्यासिटी विचारेल. जतन केलेले पूर्वनिर्धारीत "ओड्यासिटी माहिती निर्देशिकेत" ffmpeg_presets.xML "नावाच्या धारिकामध्ये संग्रहित केले जातात:</t>
+  </si>
+  <si>
+    <t>विंडोजः वापरकर्ते u &lt;वापरकर्तानाव&gt; \ अ‍ॅपडेटा \ रोमिंग \ ओड्यासिटी</t>
   </si>
   <si>
     <t>मॅक: ~ / लायब्ररी / अनुप्रयोग समर्थन / धृष्टता /</t>
   </si>
   <si>
-    <t>लिनक्स: ~ / .audacity-data /.</t>
-  </si>
-  <si>
-    <t>प्रीसेट हटवा: प्रीसेटमधील निवडलेला प्रीसेट काढून टाकते: ऑडॅसिटीच्या अंतर्गत संचयनातून ड्रॉपडाउन.</t>
-  </si>
-  <si>
-    <t>प्रीसेट्स आयात करा: बाह्य एक्सएमएल फाईलमधून एक किंवा अधिक प्रीसेटचा विद्यमान सेट आयात करते. आयात केलेल्या प्रीसेट आपल्या विद्यमान प्रीसेटच्या सूचीमध्ये जोडले जातील. जर आयातित प्रीसेटचे विद्यमान प्रीसेटसारखेच नाव असेल तर ऑडॅसिटी आपल्याला त्या विद्यमान प्रीसेटची आयातित प्रीसेटच्या सेटिंग्जसह अधिलिखित करू इच्छित असल्यास विचारेल.</t>
-  </si>
-  <si>
-    <t>एक्सपोर्ट प्रीसेट्स: सध्या निवडलेल्या सर्व प्रीसेट्सला एक्सटर्नल एक्सएमएल फाईल म्हणून आपल्या पसंतीच्या फाईलचे नाव आणि फोल्डरमध्ये एक्सपोर्ट करते. नवीन किंवा सुधारित प्रीसेट निर्यात करण्यासाठी आपण जतन करण्यासाठी प्रथम जतन प्रीसेट वापरा.</t>
+    <t>लिनक्स: ~ / .audacity-data / .</t>
+  </si>
+  <si>
+    <t>पूर्वनिर्धारीत हटवा : पूर्वनिर्धारीतमधील निवडलेला पूर्वनिर्धारीत काढून टाकते : ओड्यासिटीच्या अंतर्गत संचयनातून ड्रॉपडाउन.</t>
+  </si>
+  <si>
+    <t>पूर्वनिर्धारीत आयात करा : बाह्य एक्सएमएल(XML) धारिकामधून एक किंवा अधिक पूर्वनिर्धारीतचा विद्यमान संच आयात करते. आयात केलेल्या पूर्वनिर्धारीत आपल्या विद्यमान पूर्वनिर्धारीतच्या सूचीमध्ये जोडले जातील. जर आयातित पूर्वनिर्धारीतचे विद्यमान पूर्वनिर्धारीतसारखेच नाव असेल तर ओड्यासिटी आपल्याला त्या विद्यमान पूर्वनिर्धारीतची आयातित पूर्वनिर्धारीतच्या समायोजनसह अधिलिखित करू इच्छित असल्यास विचारेल.</t>
+  </si>
+  <si>
+    <t>एक्सपोर्ट पूर्वनिर्धारीत : सध्याच्या सर्व सेव्ह केलेल्या पूर्वनिर्धारीतची एक्सटर्नल एक्सएमएल(XML) धारिका म्हणून आपल्या पसंतीच्या धारिकाचे नाव आणि फोल्डरमध्ये निर्यात होते. नवीन किंवा सुधारित पूर्वनिर्धारीत निर्यात करण्यासाठी आपण जतन करण्यासाठी प्रथम जतन पूर्वनिर्धारीत वापरा .</t>
   </si>
   <si>
     <t>निर्यात करण्यासाठी स्वरूप आणि कोडेक जोडी निवडली</t>
   </si>
   <si>
-    <t>प्रीसेट्स नियंत्रणाखालील रेखा नेहमीच "स्वरूप:" आणि "कोडेक:" दर्शवते जी खाली असलेल्या स्वरूपांमध्ये आणि कोडेक्स सूचीमध्ये निवडल्याप्रमाणे निर्यातीसाठी वापरली जाईल. आपण प्रीसेट लोड केल्यास, ही ओळ त्या प्रीसेटद्वारे जतन केलेल्या स्वरूप आणि कोडेकमध्ये बदलेल.</t>
+    <t>पूर्वनिर्धारीत नियंत्रणाखालील रेखा नेहमीच "स्वरूप:" आणि "कोडेक:" दर्शवते जी खाली असलेल्या स्वरूपांमध्ये आणि कोडेक्स सूचीमध्ये निवडल्याप्रमाणे निर्यातीसाठी वापरली जाईल. आपण पूर्वनिर्धारीत लोड केल्यास, ही ओळ त्या पूर्वनिर्धारीतद्वारे जतन केलेल्या स्वरूप आणि कोडेकमध्ये बदलेल.</t>
   </si>
   <si>
     <t>या पृष्ठाच्या शीर्षस्थानी असलेल्या प्रतिमेत, स्वरूप / कोडेक ओळ रिक्त आहे कारण अद्याप कोणतेही स्वरूप किंवा कोडेक निवड केलेली नाही.</t>
@@ -226,43 +205,34 @@
     <t>स्वरूपांची यादी</t>
   </si>
   <si>
-    <t>संवादाच्या डाव्या बाजूस स्वरूप सूची बॉक्समध्ये, आपण वापरू इच्छित स्वरूप निवडण्यासाठी क्लिक करा. लक्षात ठेवा की कोणतेही विशिष्ट स्वरूपन निवडणे कोडेक्सची समीप यादी कमी करू शकते, कारण सर्व कोडेक्स सर्व स्वरूपांसह कार्य करत नाहीत.</t>
-  </si>
-  <si>
-    <t>आपल्याला इच्छित स्वरूप सापडत नसल्यास, सर्व स्वरूप दर्शवा बटण दाबा, परंतु लक्षात घ्या की संवाद विसंगत स्वरूप / कोडेक जोडी निवडण्यास परवानगी देणार नाही.</t>
-  </si>
-  <si>
-    <t>आपला सानुकूल FFmpeg निर्यात करण्यासाठी निर्यात ऑडिओ संवादाकडे परत येताना, आपण आपल्या निवडलेल्या फाईल नावाच्या शेवटी स्वरूपाशी संबंधित विस्तार जोडणे आवश्यक आहे. उदाहरणार्थ, डब्ल्यूएव्ही स्वरूपात कोडेकची पर्वा न करता, डब्ल्यूएव्ही स्वरूपात .wav विस्तार जोडा.</t>
+    <t>संवादाच्या डावीकडील स्वरूप सूची बॉक्समध्ये, आपण वापरू इच्छित स्वरूप निवडण्यासाठी क्लिक करा. लक्षात ठेवा की कोणतेही विशिष्ट स्वरूप निवडणे कोडेक्सची समीप यादी कमी करू शकते, कारण सर्व कोडेक्स सर्व स्वरूपांसह कार्य करत नाहीत.</t>
+  </si>
+  <si>
+    <t>आपल्याला इच्छित स्वरूप सापडत नसल्यास, सर्व स्वरूप दर्शवा कळ दाबा, परंतु लक्षात घ्या की संवाद विसंगत स्वरूप / कोडेक जोडी निवडण्यास परवानगी देणार नाही .</t>
+  </si>
+  <si>
+    <t>आपला सानुकूल FFmpeg निर्यात करण्यासाठी निर्यात ध्वनी संवादावर परत येताना, आपण आपल्या निवडलेल्या धारिका नावाच्या शेवटी स्वरूपाशी संबंधित विस्तार जोडणे आवश्यक आहे . उदाहरणार्थ, डब्ल्यूएव्ही स्वरूपात कोडेकची पर्वा न करता, डब्ल्यूएव्ही स्वरूपात .wav विस्तार जोडा .</t>
   </si>
   <si>
     <t>कोडेक्सची यादी</t>
   </si>
   <si>
-    <t>समीप कोडेक्स सूची बॉक्समध्ये, आपण निवडलेल्या स्वरुपासह आपण वापरू इच्छित कोडेक निवडण्यासाठी क्लिक करा. प्रथम कोडेक निवडण्यासाठी आपण क्लिक करू शकता परंतु कोणत्याही कोडेकवर क्लिक केल्यास ते कमी होऊ शकते</t>
-  </si>
-  <si>
-    <t>स्वरूपांची सूची कारण सर्व स्वरूप सर्व कोडेक्ससह कार्य करत नाहीत.</t>
-  </si>
-  <si>
-    <t>आपल्याला इच्छित कोडेक न सापडल्यास, सर्व कोडेक्स दर्शवा बटण दाबा, परंतु लक्षात घ्या की संवाद विसंगत स्वरूप / कोडेक जोड्यांची निवड करण्यास अनुमती देणार नाही.</t>
+    <t>समीप कोडेक्स यादी बॉक्समध्ये, आपण निवडलेल्या स्वरूपनासह आपण वापरू इच्छित कोडेक निवडण्यासाठी क्लिक करा. आपण प्रथम कोडेक निवडण्यासाठी क्लिक करू शकता परंतु कोणत्याही कोडेकवर क्लिक केल्यास स्वरूपांची यादी कमी होऊ शकते कारण सर्व स्वरूप सर्व कोडेक्ससह कार्य करत नाहीत.</t>
+  </si>
+  <si>
+    <t>आपल्याला इच्छित कोडेक न सापडल्यास, सर्व कोडेक्स दर्शवा कळ दाबा, परंतु लक्षात घ्या की संवाद विसंगत स्वरूप / कोडेक जोड्यांची निवड करण्यास अनुमती देणार नाही .</t>
   </si>
   <si>
     <t>सामान्य पर्याय</t>
   </si>
   <si>
-    <t>या उपखंडात सर्व स्वरूप आणि कोडेक संयोजनांसाठी कॉन्फिगर करण्यायोग्य पर्याय आहेत.</t>
-  </si>
-  <si>
-    <t>स्वरूप आणि कोडेकच्या कोणत्याही विशिष्ट संयोजनासाठी काही पर्याय उपलब्ध नसतील आणि ते राखाडी केले जातील. ते काय करतात याचे स्पष्टीकरण आणि शिफारस केलेल्या सेटिंग्ज पाहण्यासाठी पर्याय (मजकूर लेबल नसलेले इनपुट बॉक्स) वर फिरवा. जर एखादा पर्याय धूसर झाला असेल तर तो निवडलेल्या स्वरूप / कोडेकवर लागू होत नाही.</t>
+    <t>या उपखंडात सर्व स्वरूप आणि कोडेक संयोजनांसाठी संरचना करण्यायोग्य पर्याय आहेत. स्वरूप आणि कोडेकच्या कोणत्याही विशिष्ट संयोजनासाठी काही पर्याय उपलब्ध नसतील आणि ते राखाडी केले जातील. ते काय करतात याचे स्पष्टीकरण आणि शिफारस केलेल्या समायोजन पाहण्यासाठी पर्याय ( मजकूर नावपट्टी नसलेले इनपुट बॉक्स ) वर फिरवा . जर एखादा पर्याय धूसर झाला असेल तर तो निवडलेल्या स्वरूप / कोडेकवर लागू होत नाही.</t>
   </si>
   <si>
     <t>FLAC पर्याय</t>
   </si>
   <si>
-    <t>या उपखंडात पर्याय आहेत जे फक्त तेव्हाच उपलब्ध असतात जेव्हा आपण आपला कोडेक म्हणून एफएलएसी निवडता.</t>
-  </si>
-  <si>
-    <t>इतर सर्व कोडेक्ससाठी या उपखंडातील पर्याय धूसर केले जातील.</t>
+    <t>या उपखंडात पर्याय आहेत जे फक्त तेव्हाच उपलब्ध असतात जेव्हा आपण आपला कोडेक म्हणून एफएलएसी निवडता . इतर सर्व कोडेक्ससाठी या उपखंडातील पर्याय धूसर केले जातील.</t>
   </si>
   <si>
     <t>एमपीईजी कंटेनर पर्याय</t>
@@ -274,44 +244,36 @@
     <t>उदाहरण</t>
   </si>
   <si>
-    <t>कस्टम एफएफएमपीएग एक्सपोर्ट एक्सपोर्ट ऑडिओ संवादात "एम 4 ए (एएसी) फाइल्स" निवडून सध्या शक्य नसलेल्या एक्सपोर्ट एम 4 ए (एएसी फाइल्स) चा बिट रेट निर्दिष्ट करण्याचा एक मार्ग प्रदान करतो.</t>
-  </si>
-  <si>
-    <t>स्वरूप सूचीमध्ये एमपी 4 निवडा.</t>
-  </si>
-  <si>
-    <t>कोडेक्स सूचीमध्ये libvo_aacenc निवडा.</t>
-  </si>
-  <si>
-    <t>बिट दरात: सामान्य पर्याय उपखंडात, प्रति सेकंद बिट्समध्ये 320 केबीपीएस पर्यंत थोडासा दर प्रविष्ट करा. उदाहरणार्थ, 280 केबीपीएस वर निर्यात करण्यासाठी, "280000" (कोटेशिवाय) प्रविष्ट करा.</t>
-  </si>
-  <si>
-    <t>ओके बटणावर क्लिक करा.</t>
-  </si>
-  <si>
-    <t>ऑडिओ एक्सपोर्ट संवादात परत, आपले इच्छित फाइल नाव प्रविष्ट करा आणि नंतर नावाच्या शेवटी "एम 4 ए" (कोटेशिवाय) जोडा.</t>
+    <t>कस्टम एफएफयमपीईजी (ffmpeg) एक्सपोर्ट एक्सपोर्ट ध्वनी संवादात "एम 4 ए (एएसी) धारिका" निवडून सध्या शक्य नसलेल्या एक्सपोर्ट एम ४ ए (M4a) (एएसी धारिका) चा बिट प्रमाण निर्दिष्ट करण्याचा एक मार्ग प्रदान करतो.</t>
+  </si>
+  <si>
+    <t>स्वरूप सूचीमध्ये एमपी४ (MP4) निवडा .</t>
+  </si>
+  <si>
+    <t>कोडेक्स सूचीमध्ये libvo_aacenc निवडा .</t>
+  </si>
+  <si>
+    <t>मध्ये बिट दर: सामान्य पर्याय उपखंडात प्रविष्ट बिट दर प्रति सेकंद बिट व्यक्त 320 केबीपीएस आहे. उदाहरणार्थ, 280 केबीपीएस वर निर्यात करण्यासाठी, "280000" (कोटेशिवाय) प्रविष्ट करा.</t>
+  </si>
+  <si>
+    <t>क्लिक करा ओके कळावर क्लिक करा.</t>
+  </si>
+  <si>
+    <t>ध्वनी एक्सपोर्ट संवादात परत, आपले इच्छित धारिका नाव प्रविष्ट करा आणि नंतर नावाच्या शेवटी "एम 4 ए" (कोटेशिवाय) जोडा.</t>
   </si>
   <si>
     <t>मर्यादा आणि अस्वीकरण</t>
   </si>
   <si>
-    <t>धडधडीचे उद्दीष्ट एफएफएमपीएगसारखेच निर्यात / आयात वैशिष्ट्ये प्रदान करणे आहे. म्हणजेच, आपण थेट एफएफम्पेग वापरण्यासारखेच परीणामांसह ऑडिओ ट्रान्सकोड ऑडसिटी वापरण्यास सक्षम असावे. याचा अर्थ असा देखील आहे की जर एफएफम्पेग विशिष्ट रूपांतरण करू शकत नसेल तर ऑडसिटी ते एकतर करू शकत नाही. मर्यादा विशिष्ट स्वरूप आणि कोडेक्स आणि त्यांच्या मेटाडेटावर लागू होतात. विशेषतः, एफएफम्पेग केवळ आयात करू शकणार्‍या स्वरूपात सुमारे दोन तृतीयांश निर्यात करू शकते. संभाव्यत: ज्ञात मर्यादांबद्दल अपूर्ण माहिती https://wiki.audacityteam.org/wiki/FFmpeg_integration#Functionality वर पाहिली जाऊ शकते. एफएफएमपीजीच्या ऑडॅसीटी अंमलबजावणीत अडचण आल्यास तपासणी करण्याचा एक मार्ग म्हणजे समान कार्य करण्यासाठी स्वतंत्रपणे एफएफम्पेगची कमांड-लाइन आवृत्ती वापरणे. जर ते एफएफम्पेगमध्ये अयशस्वी झाले तर ऑडॅसिटीला समान मर्यादा आहे.</t>
+    <t>धडधडीचे उद्दीष्ट एफएफएमपीएगसारखेच निर्यात / आयात वैशिष्ट्ये प्रदान करणे आहे. म्हणजेच, आपण थेट एफएफयमपीईजी (ffmpeg) वापरण्यासारखेच परिणाम ध्वनी ट्रान्सकोड करण्यासाठी ओड्यासिटी वापरण्यास सक्षम असावे. याचा अर्थ असा देखील आहे की जर एफएफयमपीईजी (ffmpeg) विशिष्ट रूपांतरण करू शकत नसेल तर ओड्यासिटी ते एकतर करू शकत नाही. मर्यादा दोन्ही विशिष्ट स्वरूप आणि कोडेक्स आणि त्यांच्या मेटाडेटावर लागू होतात. विशेषतः, एफएफयमपीईजी (ffmpeg) केवळ आयात करू शकणार्‍या स्वरूपात सुमारे दोन तृतीयांश निर्यात करू शकते.संभाव्यत: ज्ञात मर्यादांबद्दल अपूर्ण माहिती https://wiki.audacityteam.org/wiki/FFmpeg_integration#Functionality वर पाहिली जाऊ शकते . एफएफएमपीजीच्या ऑडॅसीटी अंमलबजावणीत अडचण आल्यास परीक्षण करण्याचा एक मार्ग म्हणजे समान कार्य करण्यासाठी स्वतंत्रपणे एफएफयमपीईजी (ffmpeg)ची कमांड-लाइन आवृत्ती वापरणे. जर ते एफएफयमपीईजी (ffmpeg)मध्ये अयशस्वी झाले तर ओड्यासिटीला समान मर्यादा आहे.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -327,27 +289,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -356,8 +303,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,6 +312,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -477,6 +430,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,525 +606,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="2" max="2" width="121.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="42" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
